--- a/25/Before_Soc_EEH2.xlsx
+++ b/25/Before_Soc_EEH2.xlsx
@@ -7,6 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Entropy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hurst" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,19 +17,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>ГО</t>
+  </si>
+  <si>
+    <t>ГЗ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Преображенский Артём</t>
+  </si>
+  <si>
+    <t>Маркашанская Дарья</t>
+  </si>
+  <si>
+    <t>Коровина Екатерина</t>
+  </si>
+  <si>
+    <t>Князев Данила</t>
+  </si>
+  <si>
+    <t>Михайлов Михаил</t>
+  </si>
+  <si>
+    <t>Харламов Дмитрий</t>
+  </si>
+  <si>
+    <t>Пяточкин Михаил</t>
+  </si>
+  <si>
+    <t>Бредихина Анастасия</t>
+  </si>
+  <si>
+    <t>Двинских Дарья</t>
+  </si>
+  <si>
+    <t>Шилова Алена</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +118,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,4 +441,4186 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.08361588093713612</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.21015015425367</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.27318461276844</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3279505461852984</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4311106806003911</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6261109502817908</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4294767096769307</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3987615850312216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4018573007146357</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4519073860406286</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.2976955258397807</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2226114765898689</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6845773219460823</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.00862202359002</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3810774469197364</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.598563072540192</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.017346378484411</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.149586082255497</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.145567543002955</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8.627291006974385</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.162051542690339</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.722659608456738</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.770736232678312</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3.531400301056488</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.272905671467933</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.6873072851885152</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.729667003506743</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.144336491873188</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.6473994482178262</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.5555687480402204</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.626225153733192</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.047511684521347</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.414418314539941</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.195240808370443</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.349245117450391</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.903520422115279</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>3.357414541139936</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.014337561587431</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2.20917695615916</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.480808714107434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08334759650284757</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7178125744195518</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.115046438483806</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.235372333918127</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.883385715651731</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.613492238825352</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5165465446597107</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.320600076762986</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.29319476200477</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.428483224110406</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5871264809049028</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5500912859482102</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.385828380356966</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.252777696246722</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3193783465307367</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.3363589047438284</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1361094725972581</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1481054772308576</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1362367906969134</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.3987879475667368</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.555361349525504</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.620311754627515</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.492568285230321</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1874366988265909</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2747378295986017</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.3041297883063381</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.32104444224394</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2518375129735798</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.18070780031056</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.3893145904187939</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.799555502441511</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.104986722152267</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.797952529684034</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.001598238544129</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.209411043554334</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.5866508373736533</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6108292067287144</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.9208904443254915</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.78743176681698</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.8075663965570399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4314930793851734</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.731472705047681</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.96085732117452</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4533666434488863</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5693431114581385</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.05192977904833039</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1029413369583712</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.880227247661463</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.220332190444834</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3613586641288319</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4118586201105016</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1578256317001927</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1103387007801115</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3215755315650469</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.6557544562959748</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5521429299480838</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.039013590024683</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9957133922301741</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.609231141832387</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.76740423825962</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.995014035566142</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.670554358106258</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1197724913452022</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.09019127411309937</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.583782036312188</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3.091811263190834</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2.024003707577743</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.720373072987217</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5249234704250528</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.691800160150304</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.6411345073926495</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.507402986737447</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.642293665738092</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.130558842033909</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.939713905803246</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.253954566421595</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.209023131109328</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.875368896794073</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.32794909060688</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.4025583646820292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.06846030072223783</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.224316709010616</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.27747089313148</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6315707867878135</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3618996953508096</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2569550516429741</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0755091058101926</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.08312332324331781</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1002389809913354</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.09651038647537535</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1250075022405027</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.08457608715560454</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.08953984686573553</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.07832989964926411</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.09589362537530319</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.07898618525447575</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.584411159385192</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.566090139665736</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4477118363597565</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4934476631520406</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9051717693689401</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.029795507111369</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3780633442534392</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.025444266500115</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.800475176257047</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1077254620821783</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.443115497084359</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.298664421548581</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1397068229942403</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.08049414810484959</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.5228883320405866</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.8356662713158604</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1839455203993405</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3.4982429376411</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.672456284426293</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.09582030595179224</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.3560832921087649</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.2659553889283648</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.9085756914541268</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.6899572908531434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1072006874532155</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.750358644833722</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.61258393949422</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.362336627450913</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.49176156464371</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2976971552323972</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7168924769850787</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.680357761943943</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6364981457731322</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1540820894079874</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2431734288299726</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2437074533319259</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.4348189982204684</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4644226470793085</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1210874069709947</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1957827398105003</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.249262896793638</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2205246666023094</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2814748478224715</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2450491379260814</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.884652469919647</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.8895436333879105</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1177330455930055</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.845171169291034</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.478907119189885</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.378097013430138</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.063613792702852</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.097905097629248</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.6801344532839996</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.6977821734120643</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.4136004088005535</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.3335334082972221</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.2641498347386832</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1014042421521383</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.2012802229157591</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.849814014946958</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.732166571850083</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1210929894571066</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.065821715104905</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.5377756708470386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08083877561414241</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.619008531804158</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.841024537229587</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6846020018081024</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6128820251096623</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7361246674360323</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4706200594286546</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5791624228110011</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6683325827790983</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3827718162114492</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5329424192468352</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3463565510681849</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.4787812605006336</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.3071782141656158</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.7276779694886212</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8646644579159247</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.6021370480899912</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.308106160855722</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.069550762898911</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.459497390621968</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.04829063182208</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9877791425682182</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.4230189310942736</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.6830001401418231</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.4223223425708822</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.3363648959136256</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.5124485833856857</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.721099469156404</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.382238778265938</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.8963511142231426</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.578348483352592</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.5061400095664266</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.70510011518858</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7.365721761733997</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.576718251628507</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>3.061172801529095</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.430409662283543</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.352162084896285</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.950348025609473</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>4.162022765823096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05174192155615134</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.589920795030836</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.405653983334409</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1591599660015021</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1330226260935408</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3160871065185955</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4492662090235846</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1877216837675929</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1702361467161735</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3257782522630259</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5025705576238266</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5021400335341679</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6835863749829886</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1841628167098414</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4116058981155682</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5093475291985256</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.2567161535108586</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.4386784657302552</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.684665094770001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.227446523511673</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.2807032853773004</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.4163058968382138</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.1604529472735238</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10.91662853470612</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.470857276093985</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.834963621221212</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.517888923956866</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.6464660909959649</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.8966816409646245</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2.119140335885622</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.171892257125996</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.643136012391795</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1.665757702989718</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.863117649942352</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.4136046744040544</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.852121259619082</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3.056421675391408</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.4887174850490815</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.4479854582717218</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.4448370713058399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09548723270252103</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.588581617021727</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.535675978873416</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.629966938667952</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.017319573305816</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.012610113039949</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.386625876181308</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.344307112266964</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.008585415239486</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.309294684882957</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.406139561968444</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5702105911515323</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2487604209480106</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2697975356793354</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.06433627520550884</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.09179461820410935</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2557961776283574</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.123097213317592</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.572423233538935</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1184107096820405</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.3018939694796544</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.116273459213145</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.10633604854839</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.677625087588197</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.225599928212254</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.156438759165648</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3326493900649049</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1626031875343341</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.3618421034297152</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.05943179123762005</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.7094015939867725</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.8800122805678332</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.1258986279499272</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.06595170904882358</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.1573866984015168</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.05538583050689044</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1626517724772043</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.433589191692286</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>3.635882482258991</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.6166176369715214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05672749292570166</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.59546676768711</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.38624924868142</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5479837346822596</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2766413439937351</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2549555441751101</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2125990044664133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1593970219710512</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.09662625227570698</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3037777809493266</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4915762060818193</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2733959758771878</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1579675108884095</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.09715802019123182</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4567951719505088</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5000194187236665</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1258280088542154</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.07973046309999614</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1528560219083293</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.3876165643616959</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4718706439228268</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5041277372525667</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4507424260593855</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3528341467074469</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.2899423021526961</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.5324813082930424</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.5110470253267079</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.8670295854103417</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1836024022572028</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3276248280201824</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.1190779661023817</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.1521032560694136</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.1325059876285758</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.2843834311393897</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.2590459568044159</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.5151971224436668</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3134340794360764</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3706343574698279</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3494206609082927</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.1467987596755232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1083813886496649</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.444015386446466</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.475948857062936</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5400991495177727</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.911055584217783</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.665843769353183</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1538552309557399</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3580917166560359</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4792023909283891</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1855327621493789</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1456663998207594</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1002993876957148</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1658611903165153</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1466312568723727</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2485976585691729</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.25891772718142</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.424136918055894</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.146862395206051</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1165734811537661</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1240981263768031</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.4190964639155361</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.1499510949427978</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.178560235484667</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.447005052174042</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.464735988429333</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.6536645559649993</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.1916180637239817</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.1223686929553644</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1153779926012883</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1610919783703879</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.1975723822601406</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.7617312142834627</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.4101348880881028</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.1600337212862108</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.09234606897493566</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.1331888497579903</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.1359695074319495</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1907523161272125</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.2811929051563819</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.2284570196299852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.12078388205199</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.413893500688038</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.728818562891928</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.341503443945536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.571449701129189</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.947604096685864</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.505492193864457</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.150855885139862</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.038369705409453</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.373977978607344</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.50496609409314</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.758379830314085</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.768392813726559</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.743868845805416</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.6724253419715</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.131556065016093</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.931975956258369</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.88144127841659</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.313199174100532</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4.022593366144261</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.4188428518589</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.220012205329025</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.082214535543461</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6.075164625082391</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>7.624320528261513</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.595844982865072</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.62879344573995</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.125597569435456</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7.431759933993243</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6.333500696567841</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6.656489148657246</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.926493340133434</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7.473549644783379</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>5.016583195133788</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5.128420863095877</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4.496172946992211</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4.384141700140354</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.459528245618618</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5.988812833498085</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>5.81862352789444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.41789058359136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.307427914228</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.237160697268206</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.490718574464521</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.40338157007213</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.370052271340647</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.482247472287764</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.810447445299656</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.725949568879724</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.651462876008476</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.067965292329153</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.072903016915742</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.518295351187757</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8.257866242599752</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7.218187627872516</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7.771285934402995</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.311918338280183</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8.177452500181358</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.853270702489366</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.337577476758752</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.685567202024111</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.311501197424439</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.552947959207934</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.930483097034816</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8.202916616386698</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.237414727854901</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.484397601462909</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.1628904367988</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6.919854640685263</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6.786803733023733</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5.90021185201452</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.345356882666885</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5.931068170859342</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7.857665799849223</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>8.288614293039636</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8.030665905226355</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8.535605504706689</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7.628153900738483</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6.365917144071394</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>8.874440198440888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.286786370646875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.435090150742212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.784620109594856</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.189763089322903</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.033006847299838</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.139635732155355</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.335800100857261</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.940604117371022</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.623140188513882</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.909010187832445</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.885763320288803</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.150975806110511</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.021313071054795</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.010414923936926</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.208672377102692</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.541037967285505</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.71284548758462</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.044564904930134</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.996889362505222</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.709227020629255</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.95238863550954</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.461249658972028</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.180227088788808</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.307580178988372</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.872248544748356</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2.132549873808578</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.874625714745184</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.728887148340422</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7.170044714903249</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>5.019023176185704</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.943163096201323</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.501719174907089</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4.061246560263024</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5.220115525800812</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>4.797907512184184</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>7.908751769308862</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5.685063567129705</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.722578762041289</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.09068813395108</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>8.39327524993538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.21241560225378</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.947833657956905</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.737383466708793</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.899404378852672</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.021313071054794</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.555441128934751</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.599912842187142</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.049155872174909</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.594301680849912</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.569855608330948</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.758379830314086</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.396600792869965</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.159871336778397</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.62460042309773</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.840739615817212</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.466516595651468</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.159344852399499</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.378189592443109</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7.116638742396595</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.359684841964943</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.618513839077925</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.489240319649978</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.323423544893971</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.645861210495984</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5.698173518005489</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.075775605097623</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.918153447671051</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.901123313692148</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.321342609056181</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.643856189774739</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.813230253415951</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.444286512694894</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.732389359854979</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.462859239472048</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>4.481153962669719</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.015679582232679</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>8.108275871649107</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.776840448146078</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.667869411798966</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8.219518966396434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.20549909372608</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.257055438422057</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.727437308863795</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.81064860602352</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.130293690672125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.849007061374143</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.87355114909654</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.74183609525613</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.598661905257369</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.856966845759568</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.877727452691781</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.88779916190876</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.653828435387515</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.029156123715341</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.453137305731691</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.96471562751626</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.661978179679564</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.935562744654749</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7.03817667764381</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.539335030620271</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.039292941838053</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.230185181965073</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.711706084627389</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4.630737579730438</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4.252445525631391</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5.588508958637627</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.468441172831919</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.837052003735627</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.691496866998562</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.188864462772827</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.029394220017677</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.71354230976408</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.10660311383795</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.226310146600061</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.599328288182464</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>5.318755383176422</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.206258037383842</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.022367813028458</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.049743314226872</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>6.815171239192523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.16620741972971</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.670369998488428</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.121619079382667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.3310846680733</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.378127315961637</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.902376088310491</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.512860736469984</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.793217076777641</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.546637254654229</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.401541510935202</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.34170783864904</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.324065578426756</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.695316767250997</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.970316013709499</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.717514437483131</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.224870058745536</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.527750345173065</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.866881235383211</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.145788373570981</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.994074515644844</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.785002987281731</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.625810345155735</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.706744414654535</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.031385191140095</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.698391385378596</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.449698293979183</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.739743646336366</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4.445208591702016</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5.038305836619787</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7.529456258031465</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.664433779240278</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.143554195096613</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4.5234959473938</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>5.460749602046844</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>7.507505587593417</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5.192170753844181</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>8.767938733537788</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7.375139860316567</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.970305823444425</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>8.578694557752547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.21668872071775</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.360856218291974</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.480797623290646</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.519731258992723</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.093934147921117</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.436280504412442</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.424765182467023</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.442384617559659</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.48581661822068</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.337515755906971</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.261254007652186</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.19758082877482</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.491853096329662</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.574386126285225</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.49875202360576</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.301295154206362</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.679506969934234</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.051085843212908</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.613601812559735</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.159995373016189</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.405917329532589</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.490402448444494</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.810010618811837</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.40250839443961</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.536322446130735</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.018463081461581</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.940080590104845</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.712344475855599</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6.133893664632535</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.326846660262571</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5.578518043128573</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.326211405744226</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5.866074567076516</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6.790977441389348</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>7.199814793427783</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>3.497877389805217</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3.426868594581651</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.889521109169602</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.019091496675265</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>8.234669674043829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.00029099334882</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.353733068120051</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.672605233717099</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.638631973818861</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.555810217198244</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.449396960878722</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.413362856501958</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.73498132501723</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.673386671134658</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.869600541346937</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.709707140824546</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.002352819977903</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.744585026255146</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8.070847938361421</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.515699838284037</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.875296909662096</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.050292667292245</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.410113254904795</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.763851333478305</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.185661621017694</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.720054039052942</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.454083818194532</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.813762558352107</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4.498073945260121</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4.80526060448307</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.673663062903642</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.703698277932356</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.402960299634225</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.950862960391836</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.798426350628997</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5.328430074591867</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.873993569280955</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.431089457224932</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.213228003995976</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8.662607607789749</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>8.791306196542005</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>9.427753581611865</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.311339950946204</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5.090426638823443</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>6.811470816989324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.37336237677376</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.071818378508643</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.095028260317894</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.116977609255837</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.745428464300712</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.621271969588342</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.471947213566999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.279222184683579</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.719247885923713</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.359897962426178</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.967845913338373</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.993280201350441</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7.568750559473532</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.011586458581885</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.411960871488852</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.604473795542482</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8.348404067117615</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.643014794185888</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7.8020117900748</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7.553380843808087</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.397291585092724</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.704940253883938</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.765848666092225</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.642156237911975</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.361771865885222</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.063255282017549</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.881393629233015</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.497259377402204</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>9.017810205834856</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.816016242664293</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.220513701714411</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.901784284662096</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.661076894144305</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.282221257123842</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9.404143941137425</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6.685392220045998</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>8.840830294231623</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8.067849010419986</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.344811526250112</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7.450296224191622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.07020520894</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.899581734926789</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.984271340091056</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.853081822359069</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.284362521608029</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.530253584252518</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.517653434763961</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.062110682732943</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.245159599054474</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.013786107148148</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.21916852046217</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.492175410202718</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.859025803796694</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.613756443863009</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8.33030704425506</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.884778028558063</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.604472312199765</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.106168676612072</v>
+      </c>
+      <c r="U11" t="n">
+        <v>8.095447476703745</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.890223928941895</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.512123487680841</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.541078403057061</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.135860762935337</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.092698527732914</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.245023889642551</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>7.017666307406674</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.88027199811312</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.962980887839263</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.430117476091237</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.166115986566681</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.07220998104499</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.066081379190297</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.098382840802543</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.980928636395722</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9.241890461514338</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>8.255580187389683</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>9.35898090148072</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6.90625</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7.851361519975502</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>7.330916878114602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6555349355950731</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5792077788675224</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5798269164817266</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.565883448920342</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5728225037203688</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.590153064592323</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7062787537159478</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5783435244587464</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5762586802780902</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5824178448505481</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6319919591299142</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5791570599832956</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.64232220470978</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.5846589191951641</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5806880724760599</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6617707098864861</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.5765971321202896</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.5862158787914842</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5785039104368993</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.589589361633149</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5766350534389227</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5761869862036031</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.5611291357097239</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.583483346848033</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.5888600041385298</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.7342040951908364</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.56824454996903</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.6989949798433773</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.5572804469817219</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.6508578234457517</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.5692116328940738</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.6162496241895081</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.5667207809080351</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6092275130050748</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.5675029530631759</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6803229684073653</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.5683319029729337</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.6457679325745468</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.5761879494165102</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6835320619649725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6283195232260274</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6793704980853614</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6956236676275893</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5608027369122573</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6143076119386771</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5664518742421353</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6023336085019342</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7657619021047384</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5730073911001515</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5696740856871958</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6196126697747176</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5643040320787955</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.6409023396003426</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.565595427827046</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5744596831691434</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5699418314752749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.648879137678623</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.5673037493403377</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.6314959318066484</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.7202077765074463</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6725589621552935</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.6562459617262599</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.55632880727971</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.6760660618420544</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.7356976873500995</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.6803391044138558</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6736032118148164</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.5840161922017999</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.7293945267656871</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.625357496832898</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.7462007787948683</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.6559639630792126</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.672117414633689</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.710436215860848</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.6635363418723946</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.6150878194562683</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.5696591430408372</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.5797879459192039</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.6994738582643762</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.631676735585311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7505102005615728</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7698754558528346</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.571477128442798</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6365956443133305</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7891111577085462</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6381450168275424</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5852486286313096</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6160749343984789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5703407731594771</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7404864700625795</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6293975851309008</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7172555111531421</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6537615559676072</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6202888558635773</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5940232159075189</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.560742590356199</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.6026321764338746</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5659161420485677</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5726051110875464</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5687724040198555</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.574290505497853</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.6110894282280567</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.7352821616488798</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.7136415848932715</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.7200151428504931</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.5787352536861858</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.575735904669622</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.5789209124612896</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5578230328495698</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.6553084615692364</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.554187529130697</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.5940056840122419</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.5565354227579697</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.611140526802426</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.5766550949892386</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.6181578566980901</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.6804083887340642</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.5676752967779637</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.7169929994014529</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.5613107430179586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6641428088802079</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6802159918633587</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5655437905944266</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6330807442773101</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.694999626709104</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5645045367010685</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6769729363234668</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6361987562747583</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5941788604485801</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6614580762865295</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5830091250518528</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6234665455013212</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6573929080119013</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6036105815638835</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6359659403459974</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.645152884461762</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6714044556276783</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5663686954033564</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5759380017194315</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5766033839781612</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5755860861526728</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5894174363343287</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5597172444642858</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.597670993473316</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5630086896752824</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.5970023484871367</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.6186172354632332</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5799905370966213</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5676357245921296</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.6159791033101811</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.5412167683930295</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.5715556927739748</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.5591528770277877</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.6169764769576227</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.5604646721414426</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.6578516554632545</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.6956970838067946</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.6385057870974504</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.7352683619774042</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.6279557123376954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5963836374832475</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5718683188170735</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5694861728981824</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5626325001679998</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5729494536255165</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5664937029246707</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6059728985021945</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5667101894201358</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5791940058522008</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5692579472074397</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6032291360299786</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5672289825642559</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.682416352657427</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5739132847994667</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.6158981201207617</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5968021373384593</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5906293412718204</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6426445251778844</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5861845534539069</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5711525642437392</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5868708404705529</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5726351513490262</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.6128602154157926</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.6265149729519079</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5593456004935276</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.6198617832059579</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5599872765762891</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.5816744260937432</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.7144141981249922</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.5828531282277596</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.5656064510277096</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.6768139302708577</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.6434047247201184</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.6514071356665802</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.7233749880227855</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.6756216977029618</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.5604852366312504</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.6519348473132704</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.67291052147512</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.5810877097757545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6378940641785247</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5914206814741111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5765123880056416</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6666019398062089</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7292636871972447</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5990291570361762</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7329434286224464</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6332119473526224</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.792706147983289</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6965207596750776</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6828479250257383</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6377089719778083</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6016644552646245</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.6913113371565848</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.6773690990415757</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6225811433746999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.6737466267342846</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6838729784864833</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6762180876900743</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5639760917644789</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.6154268624670387</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.575062219730227</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.7045863841283154</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.5943953536653483</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.7583139551949803</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.6692890936678014</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.6874998410013687</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.6233892549098566</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5558943199243895</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.608147926977721</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.6148657224192277</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.7179717794388912</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.6660621364280538</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.5727241642825904</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.6574123467213046</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.5659600517212</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.565146555754328</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.5973195994838789</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.582323422570764</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.7294717938370373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5996859839958305</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6463527895717187</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5705223814111116</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5659792037437549</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5886648904724602</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6048671471310058</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6851529600882263</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5937660646741907</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6475801377881425</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5750079317130724</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6311533636626133</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5666832529471637</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6385128447050741</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5666629591424474</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6058959209889939</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5706932509392959</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6793736818774462</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5731998039693582</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.582694819469973</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5757231769043144</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6451905238894813</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5809756829824639</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.5615485709636721</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6501116216443157</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5640603147499467</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5888965574330727</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.5605780573268149</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.6119014690029377</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.5617461653433896</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5982396931918401</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.5650143063569374</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.5651902911925148</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.5591529411920751</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.5780382696821598</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.5642938976056864</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.5650475149342055</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.5606594007036247</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.5688002512159899</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.600863147454606</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5575697229131333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6863211310312488</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7325016523753202</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5642226075444904</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5608809276729378</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6216422246010022</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5640293219135238</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.7392912418412005</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5606805384679423</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7447689957817212</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.564877513700918</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5661515420564509</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6025277425318091</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7022783339150577</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5696296327754155</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.6309995191049328</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7119605951207955</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.6428403708615565</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.6871152351840469</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.571012578608459</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5711498532383539</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.6847534119634833</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5667671137786369</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.5628148831119338</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.5699922207493793</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.6240909485941277</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.7040760709786574</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.5588089027364008</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.7430211887798964</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.6618002897062507</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.6765271307929172</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.7148952279810664</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.640812542691629</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.5600451439991616</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.6985510926590507</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.7079704559195583</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.6977823749647259</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.6927111534896936</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.5711191074845271</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5563341359273012</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.6311833169643253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6087379709700559</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6281591027561209</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5684561120078326</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5608610236706356</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5954588953934522</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5627520093193464</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7145361547349326</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5797558548130226</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6908521315281481</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6907559985275495</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6436554980988077</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5692202714992185</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7039616239721367</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.5899344293606738</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5908033847512481</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5694826558267965</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5974852723359096</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6001085051422759</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6859145244258473</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5701500310404518</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.6493481535221971</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5826005620398158</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5584172890625845</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.5714633988029125</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5722552546074899</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.5750786389119547</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.5785511206884211</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5692739354984302</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.6911864112919641</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5797952484814712</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.580687021125828</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.5924297540897108</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.6422116047193381</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.6606821814313814</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5569674870681093</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.6164272540535483</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.5712404647243877</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.6369465423058459</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.5797913098458461</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.6485785483836886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6906821201440637</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.67452002986186</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5781639546543834</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.569281814732495</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6220654262733202</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5608822355144237</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6350965283275455</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6114882676270457</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5701075870301665</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5667594903213687</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6218516696076464</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6768683741985324</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.741876738563537</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6416850825016601</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.6588435489732263</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5611357303078763</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.6364887625501575</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.5674618668212124</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.6168644264172756</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.7187235740181432</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.7251410724662226</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5948254999174925</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.7017392538049695</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.6587835869944123</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.5584820805612375</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.57648286720292</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.565427286984777</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.5779563703429818</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.679743025463646</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.6313207245794502</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.7242773354499827</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.6821516821049487</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.5638228769938183</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.7256763043593614</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.6315533374578036</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.7418362646298802</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.6345744036018054</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.5986511838459048</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.7512741906428384</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.6408262317862981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/25/Before_Soc_EEH2.xlsx
+++ b/25/Before_Soc_EEH2.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AP11"/>
+  <dimension ref="B1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -582,1254 +582,1284 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08361588093713612</v>
+        <v>0.08361588093718988</v>
       </c>
       <c r="D2" t="n">
-        <v>3.21015015425367</v>
+        <v>3.210150154253669</v>
       </c>
       <c r="E2" t="n">
-        <v>10.27318461276844</v>
+        <v>10.27318461276851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3279505461852984</v>
+        <v>0.3279505461854042</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4311106806003911</v>
+        <v>0.4311106806004992</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6261109502817908</v>
+        <v>0.6261109502818812</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4294767096769307</v>
+        <v>0.4294767096769729</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3987615850312216</v>
+        <v>0.3987615850312319</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4018573007146357</v>
+        <v>0.4018573007147384</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4519073860406286</v>
+        <v>0.4519073860407451</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2976955258397807</v>
+        <v>0.2976955258391349</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2226114765898689</v>
+        <v>0.2226114765900545</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6845773219460823</v>
+        <v>0.684577321946174</v>
       </c>
       <c r="P2" t="n">
-        <v>1.00862202359002</v>
+        <v>1.008622023590467</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3810774469197364</v>
+        <v>0.381077446919734</v>
       </c>
       <c r="R2" t="n">
-        <v>3.598563072540192</v>
+        <v>3.598563072540184</v>
       </c>
       <c r="S2" t="n">
-        <v>3.017346378484411</v>
+        <v>3.017346378484533</v>
       </c>
       <c r="T2" t="n">
-        <v>1.149586082255497</v>
+        <v>1.14958608225626</v>
       </c>
       <c r="U2" t="n">
-        <v>4.145567543002955</v>
+        <v>4.145567543003444</v>
       </c>
       <c r="V2" t="n">
-        <v>8.627291006974385</v>
+        <v>8.627291006974827</v>
       </c>
       <c r="W2" t="n">
-        <v>5.162051542690339</v>
+        <v>5.1620515426901</v>
       </c>
       <c r="X2" t="n">
-        <v>6.722659608456738</v>
+        <v>6.722659608457668</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.770736232678312</v>
+        <v>1.770736232678154</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.531400301056488</v>
+        <v>3.531400301056471</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.272905671467933</v>
+        <v>0.2729056714673841</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6873072851885152</v>
+        <v>0.6873072851883676</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.729667003506743</v>
+        <v>0.7296670035067858</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.144336491873188</v>
+        <v>2.144336491873359</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6473994482178262</v>
+        <v>0.6473994482177018</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5555687480402204</v>
+        <v>0.555568748040645</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.626225153733192</v>
+        <v>0.6262251537329651</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.047511684521347</v>
+        <v>1.047511684521374</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.414418314539941</v>
+        <v>0.4144183145398411</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.195240808370443</v>
+        <v>2.195240808370365</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.349245117450391</v>
+        <v>2.349245117450797</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.903520422115279</v>
+        <v>2.903520422115596</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.357414541139936</v>
+        <v>3.357414541139705</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.014337561587431</v>
+        <v>2.014337561587593</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.20917695615916</v>
+        <v>2.209176956159429</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.480808714107434</v>
+        <v>28.22560354059191</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4.650577989592598</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08334759650284757</v>
+        <v>0.08334759650273948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7178125744195518</v>
+        <v>0.7178125744196929</v>
       </c>
       <c r="E3" t="n">
-        <v>3.115046438483806</v>
+        <v>3.1150464384836</v>
       </c>
       <c r="F3" t="n">
-        <v>1.235372333918127</v>
+        <v>1.235372333918161</v>
       </c>
       <c r="G3" t="n">
-        <v>3.883385715651731</v>
+        <v>3.883385715651625</v>
       </c>
       <c r="H3" t="n">
-        <v>4.613492238825352</v>
+        <v>4.613492238825226</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5165465446597107</v>
+        <v>0.5165465446597172</v>
       </c>
       <c r="J3" t="n">
-        <v>1.320600076762986</v>
+        <v>1.320600076763057</v>
       </c>
       <c r="K3" t="n">
-        <v>1.29319476200477</v>
+        <v>1.293194762004777</v>
       </c>
       <c r="L3" t="n">
-        <v>1.428483224110406</v>
+        <v>1.428483224110412</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5871264809049028</v>
+        <v>0.5871264809048957</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5500912859482102</v>
+        <v>0.5500912859482266</v>
       </c>
       <c r="O3" t="n">
-        <v>0.385828380356966</v>
+        <v>0.3858283803569755</v>
       </c>
       <c r="P3" t="n">
-        <v>0.252777696246722</v>
+        <v>0.2527776962466362</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3193783465307367</v>
+        <v>0.3193783465307407</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3363589047438284</v>
+        <v>0.3363589047439924</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1361094725972581</v>
+        <v>0.136109472597421</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1481054772308576</v>
+        <v>0.1481054772309267</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1362367906969134</v>
+        <v>0.1362367906958561</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3987879475667368</v>
+        <v>0.3987879475667027</v>
       </c>
       <c r="W3" t="n">
-        <v>1.555361349525504</v>
+        <v>1.555361349525419</v>
       </c>
       <c r="X3" t="n">
         <v>7.620311754627515</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.492568285230321</v>
+        <v>4.492568285230466</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1874366988265909</v>
+        <v>0.1874366988267298</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2747378295986017</v>
+        <v>0.2747378295984294</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3041297883063381</v>
+        <v>0.3041297883063058</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.32104444224394</v>
+        <v>0.3210444422439556</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2518375129735798</v>
+        <v>0.2518375129736514</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.18070780031056</v>
+        <v>1.180707800310646</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3893145904187939</v>
+        <v>0.3893145904185152</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.799555502441511</v>
+        <v>0.799555502441235</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.104986722152267</v>
+        <v>0.1049867221526138</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.797952529684034</v>
+        <v>0.7979525296840271</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.001598238544129</v>
+        <v>1.001598238544255</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.209411043554334</v>
+        <v>1.209411043554512</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.5866508373736533</v>
+        <v>0.5866508373736674</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6108292067287144</v>
+        <v>0.6108292067286966</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.9208904443254915</v>
+        <v>0.920890444325463</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.78743176681698</v>
+        <v>1.787431766817031</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8075663965570399</v>
+        <v>10.57979310933031</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>5.587101763527078</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4314930793851734</v>
+        <v>0.4314930793851862</v>
       </c>
       <c r="D4" t="n">
-        <v>5.731472705047681</v>
+        <v>5.731472705047583</v>
       </c>
       <c r="E4" t="n">
-        <v>15.96085732117452</v>
+        <v>15.96085732117498</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4533666434488863</v>
+        <v>0.4533666434485427</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5693431114581385</v>
+        <v>0.5693431114589289</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05192977904833039</v>
+        <v>0.05192977904834295</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1029413369583712</v>
+        <v>0.1029413369581711</v>
       </c>
       <c r="J4" t="n">
-        <v>1.880227247661463</v>
+        <v>1.88022724766243</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220332190444834</v>
+        <v>2.220332190445394</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3613586641288319</v>
+        <v>0.361358664129304</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4118586201105016</v>
+        <v>0.4118586201097427</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1578256317001927</v>
+        <v>0.1578256316996755</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1103387007801115</v>
+        <v>0.1103387007800355</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3215755315650469</v>
+        <v>0.32157553156395</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6557544562959748</v>
+        <v>0.6557544562953279</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5521429299480838</v>
+        <v>0.5521429299492358</v>
       </c>
       <c r="S4" t="n">
-        <v>1.039013590024683</v>
+        <v>1.039013590024541</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9957133922301741</v>
+        <v>0.9957133922308975</v>
       </c>
       <c r="U4" t="n">
-        <v>1.609231141832387</v>
+        <v>1.609231141831542</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76740423825962</v>
+        <v>1.767404238258538</v>
       </c>
       <c r="W4" t="n">
-        <v>1.995014035566142</v>
+        <v>1.995014035565862</v>
       </c>
       <c r="X4" t="n">
-        <v>2.670554358106258</v>
+        <v>2.670554358106988</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1197724913452022</v>
+        <v>0.1197724913451105</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09019127411309937</v>
+        <v>0.09019127411297061</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.583782036312188</v>
+        <v>1.583782036313585</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.091811263190834</v>
+        <v>3.091811263190036</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.024003707577743</v>
+        <v>2.024003707577458</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.720373072987217</v>
+        <v>3.720373072986463</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5249234704250528</v>
+        <v>0.5249234704251962</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.691800160150304</v>
+        <v>1.691800160148527</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6411345073926495</v>
+        <v>0.6411345073923969</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.507402986737447</v>
+        <v>2.507402986735963</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.642293665738092</v>
+        <v>1.642293665738378</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.130558842033909</v>
+        <v>2.130558842033784</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.939713905803246</v>
+        <v>1.939713905803357</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.253954566421595</v>
+        <v>0.2539545664215427</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.209023131109328</v>
+        <v>1.209023131109244</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.875368896794073</v>
+        <v>1.875368896794186</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.32794909060688</v>
+        <v>0.3279490906067143</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.4025583646820292</v>
+        <v>7.128908380986231</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>3.87693097095664</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06846030072223783</v>
+        <v>0.06846030072248396</v>
       </c>
       <c r="D5" t="n">
-        <v>6.224316709010616</v>
+        <v>6.22431670901063</v>
       </c>
       <c r="E5" t="n">
-        <v>13.27747089313148</v>
+        <v>13.27747089313149</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6315707867878135</v>
+        <v>0.6315707867878452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3618996953508096</v>
+        <v>0.3618996953503423</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2569550516429741</v>
+        <v>0.256955051642706</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0755091058101926</v>
+        <v>0.07550910580948782</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08312332324331781</v>
+        <v>0.08312332324310974</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1002389809913354</v>
+        <v>0.1002389809916354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09651038647537535</v>
+        <v>0.09651038647567453</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1250075022405027</v>
+        <v>0.1250075022404788</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08457608715560454</v>
+        <v>0.0845760871553544</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08953984686573553</v>
+        <v>0.08953984686612065</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07832989964926411</v>
+        <v>0.07832989964922507</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09589362537530319</v>
+        <v>0.09589362537592608</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07898618525447575</v>
+        <v>0.0789861852548554</v>
       </c>
       <c r="S5" t="n">
-        <v>1.584411159385192</v>
+        <v>1.584411159385096</v>
       </c>
       <c r="T5" t="n">
-        <v>1.566090139665736</v>
+        <v>1.566090139665825</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4477118363597565</v>
+        <v>0.4477118363597929</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4934476631520406</v>
+        <v>0.493447663150349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9051717693689401</v>
+        <v>0.9051717693689444</v>
       </c>
       <c r="X5" t="n">
-        <v>1.029795507111369</v>
+        <v>1.029795507111314</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3780633442534392</v>
+        <v>0.3780633442527284</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.025444266500115</v>
+        <v>1.025444266499903</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.800475176257047</v>
+        <v>0.8004751762568434</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1077254620821783</v>
+        <v>0.1077254620824878</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.443115497084359</v>
+        <v>1.443115497084345</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.298664421548581</v>
+        <v>3.298664421548668</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1397068229942403</v>
+        <v>0.1397068229946576</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.08049414810484959</v>
+        <v>0.08049414810452184</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5228883320405866</v>
+        <v>0.5228883320406323</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.8356662713158604</v>
+        <v>0.8356662713160226</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1839455203993405</v>
+        <v>0.1839455203992538</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.4982429376411</v>
+        <v>3.498242937641522</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.672456284426293</v>
+        <v>2.672456284426641</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.09582030595179224</v>
+        <v>0.09582030595210182</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.3560832921087649</v>
+        <v>0.3560832921087168</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.2659553889283648</v>
+        <v>0.2659553889286844</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9085756914541268</v>
+        <v>0.9085756914540868</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6899572908531434</v>
+        <v>5.385218696082716</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.964421167601975</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1072006874532155</v>
+        <v>0.1072006874531404</v>
       </c>
       <c r="D6" t="n">
-        <v>5.750358644833722</v>
+        <v>5.750358644833739</v>
       </c>
       <c r="E6" t="n">
-        <v>14.61258393949422</v>
+        <v>14.6125839394941</v>
       </c>
       <c r="F6" t="n">
-        <v>1.362336627450913</v>
+        <v>1.362336627451043</v>
       </c>
       <c r="G6" t="n">
-        <v>0.49176156464371</v>
+        <v>0.4917615646439144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2976971552323972</v>
+        <v>0.297697155232417</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7168924769850787</v>
+        <v>0.7168924769845705</v>
       </c>
       <c r="J6" t="n">
-        <v>0.680357761943943</v>
+        <v>0.680357761944075</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6364981457731322</v>
+        <v>0.6364981457729052</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1540820894079874</v>
+        <v>0.1540820894079613</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2431734288299726</v>
+        <v>0.2431734288295145</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2437074533319259</v>
+        <v>0.2437074533324018</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4348189982204684</v>
+        <v>0.4348189982197053</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4644226470793085</v>
+        <v>0.4644226470793454</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1210874069709947</v>
+        <v>0.121087406970685</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957827398105003</v>
+        <v>0.1957827398108412</v>
       </c>
       <c r="S6" t="n">
-        <v>0.249262896793638</v>
+        <v>0.2492628967934354</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2205246666023094</v>
+        <v>0.2205246666024733</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2814748478224715</v>
+        <v>0.2814748478222605</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2450491379260814</v>
+        <v>0.2450491379250607</v>
       </c>
       <c r="W6" t="n">
-        <v>0.884652469919647</v>
+        <v>0.8846524699192542</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8895436333879105</v>
+        <v>0.889543633388003</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1177330455930055</v>
+        <v>0.1177330455935636</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.845171169291034</v>
+        <v>1.845171169290954</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.478907119189885</v>
+        <v>1.47890711919016</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.378097013430138</v>
+        <v>1.378097013432075</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.063613792702852</v>
+        <v>1.063613792703179</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.097905097629248</v>
+        <v>2.097905097629751</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6801344532839996</v>
+        <v>0.6801344532841397</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6977821734120643</v>
+        <v>0.6977821734108052</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.4136004088005535</v>
+        <v>0.4136004088008883</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3335334082972221</v>
+        <v>0.3335334082970381</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.2641498347386832</v>
+        <v>0.264149834738521</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1014042421521383</v>
+        <v>0.1014042421519006</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.2012802229157591</v>
+        <v>0.2012802229156093</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.849814014946958</v>
+        <v>4.84981401494757</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.732166571850083</v>
+        <v>2.732166571850049</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.1210929894571066</v>
+        <v>0.1210929894565595</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.065821715104905</v>
+        <v>1.065821715104587</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5377756708470386</v>
+        <v>7.114809759803852</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.499652195879408</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08083877561414241</v>
+        <v>0.08083877561449175</v>
       </c>
       <c r="D7" t="n">
-        <v>1.619008531804158</v>
+        <v>1.619008531804132</v>
       </c>
       <c r="E7" t="n">
-        <v>2.841024537229587</v>
+        <v>2.841024537229674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6846020018081024</v>
+        <v>0.6846020018078557</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6128820251096623</v>
+        <v>0.6128820251096194</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7361246674360323</v>
+        <v>0.73612466743598</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4706200594286546</v>
+        <v>0.4706200594286071</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5791624228110011</v>
+        <v>0.5791624228110912</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6683325827790983</v>
+        <v>0.6683325827792871</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3827718162114492</v>
+        <v>0.3827718162113329</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5329424192468352</v>
+        <v>0.5329424192474193</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3463565510681849</v>
+        <v>0.3463565510681126</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4787812605006336</v>
+        <v>0.4787812605008218</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3071782141656158</v>
+        <v>0.3071782141658238</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7276779694886212</v>
+        <v>0.7276779694886816</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8646644579159247</v>
+        <v>0.8646644579158702</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6021370480899912</v>
+        <v>0.6021370480901613</v>
       </c>
       <c r="T7" t="n">
-        <v>1.308106160855722</v>
+        <v>1.30810616085563</v>
       </c>
       <c r="U7" t="n">
-        <v>4.069550762898911</v>
+        <v>4.069550762897656</v>
       </c>
       <c r="V7" t="n">
-        <v>3.459497390621968</v>
+        <v>3.459497390622256</v>
       </c>
       <c r="W7" t="n">
-        <v>1.04829063182208</v>
+        <v>1.048290631822225</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9877791425682182</v>
+        <v>0.9877791425685181</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4230189310942736</v>
+        <v>0.4230189310943245</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6830001401418231</v>
+        <v>0.6830001401417808</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.4223223425708822</v>
+        <v>0.422322342570588</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3363648959136256</v>
+        <v>0.3363648959135718</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5124485833856857</v>
+        <v>0.512448583385674</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.721099469156404</v>
+        <v>1.721099469154391</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.382238778265938</v>
+        <v>1.382238778266054</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8963511142231426</v>
+        <v>0.8963511142232694</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.578348483352592</v>
+        <v>0.578348483352606</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.5061400095664266</v>
+        <v>0.5061400095663942</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.70510011518858</v>
+        <v>3.705100115188516</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.365721761733997</v>
+        <v>7.36572176173477</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.576718251628507</v>
+        <v>2.576718251628297</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.061172801529095</v>
+        <v>3.061172801529064</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.430409662283543</v>
+        <v>2.430409662284068</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.352162084896285</v>
+        <v>4.352162084896563</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.950348025609473</v>
+        <v>5.950348025609667</v>
       </c>
       <c r="AP7" t="n">
-        <v>4.162022765823096</v>
+        <v>9.869715748413872</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>4.579847663476225</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05174192155615134</v>
+        <v>0.05174192155570032</v>
       </c>
       <c r="D8" t="n">
-        <v>2.589920795030836</v>
+        <v>2.589920795030568</v>
       </c>
       <c r="E8" t="n">
-        <v>5.405653983334409</v>
+        <v>5.405653983334637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1591599660015021</v>
+        <v>0.159159966001356</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1330226260935408</v>
+        <v>0.1330226260929805</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3160871065185955</v>
+        <v>0.316087106518419</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4492662090235846</v>
+        <v>0.4492662090235764</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1877216837675929</v>
+        <v>0.187721683767592</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1702361467161735</v>
+        <v>0.1702361467157337</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3257782522630259</v>
+        <v>0.3257782522630149</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5025705576238266</v>
+        <v>0.5025705576238333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5021400335341679</v>
+        <v>0.5021400335340306</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6835863749829886</v>
+        <v>0.6835863749829673</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1841628167098414</v>
+        <v>0.1841628167102428</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4116058981155682</v>
+        <v>0.4116058981156464</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5093475291985256</v>
+        <v>0.5093475291984929</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2567161535108586</v>
+        <v>0.256716153511349</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4386784657302552</v>
+        <v>0.4386784657303933</v>
       </c>
       <c r="U8" t="n">
-        <v>0.684665094770001</v>
+        <v>0.684665094770687</v>
       </c>
       <c r="V8" t="n">
-        <v>0.227446523511673</v>
+        <v>0.2274465235115519</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2807032853773004</v>
+        <v>0.2807032853752397</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4163058968382138</v>
+        <v>0.4163058968380468</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1604529472735238</v>
+        <v>0.1604529472732528</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.91662853470612</v>
+        <v>10.91662853470763</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.470857276093985</v>
+        <v>7.470857276094105</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.834963621221212</v>
+        <v>1.834963621221428</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.517888923956866</v>
+        <v>1.517888923957118</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6464660909959649</v>
+        <v>0.6464660909955545</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.8966816409646245</v>
+        <v>0.8966816409648307</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.119140335885622</v>
+        <v>2.119140335885444</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.171892257125996</v>
+        <v>1.171892257126022</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.643136012391795</v>
+        <v>1.643136012391723</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.665757702989718</v>
+        <v>1.665757702989702</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.863117649942352</v>
+        <v>0.8631176499424076</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.4136046744040544</v>
+        <v>0.4136046744038168</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.852121259619082</v>
+        <v>2.852121259618892</v>
       </c>
       <c r="AM8" t="n">
-        <v>3.056421675391408</v>
+        <v>3.056421675391462</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.4887174850490815</v>
+        <v>0.4887174850489089</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.4479854582717218</v>
+        <v>0.4479854582717208</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.4448370713058399</v>
+        <v>15.38775535155383</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>8.668264346186257</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09548723270252103</v>
+        <v>0.09548723270246136</v>
       </c>
       <c r="D9" t="n">
-        <v>1.588581617021727</v>
+        <v>1.588581617021544</v>
       </c>
       <c r="E9" t="n">
-        <v>2.535675978873416</v>
+        <v>2.535675978873368</v>
       </c>
       <c r="F9" t="n">
-        <v>1.629966938667952</v>
+        <v>1.62996693866805</v>
       </c>
       <c r="G9" t="n">
-        <v>1.017319573305816</v>
+        <v>1.017319573305875</v>
       </c>
       <c r="H9" t="n">
-        <v>1.012610113039949</v>
+        <v>1.012610113040022</v>
       </c>
       <c r="I9" t="n">
-        <v>1.386625876181308</v>
+        <v>1.386625876181322</v>
       </c>
       <c r="J9" t="n">
-        <v>1.344307112266964</v>
+        <v>1.344307112266977</v>
       </c>
       <c r="K9" t="n">
-        <v>1.008585415239486</v>
+        <v>1.008585415239569</v>
       </c>
       <c r="L9" t="n">
-        <v>1.309294684882957</v>
+        <v>1.309294684882878</v>
       </c>
       <c r="M9" t="n">
-        <v>1.406139561968444</v>
+        <v>1.406139561968441</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5702105911515323</v>
+        <v>0.5702105911517337</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2487604209480106</v>
+        <v>0.2487604209480799</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2697975356793354</v>
+        <v>0.2697975356793925</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06433627520550884</v>
+        <v>0.06433627520533475</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09179461820410935</v>
+        <v>0.09179461820420652</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2557961776283574</v>
+        <v>0.2557961776303886</v>
       </c>
       <c r="T9" t="n">
-        <v>1.123097213317592</v>
+        <v>1.123097213317548</v>
       </c>
       <c r="U9" t="n">
-        <v>1.572423233538935</v>
+        <v>1.572423233538977</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1184107096820405</v>
+        <v>0.1184107096819379</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3018939694796544</v>
+        <v>0.3018939694797426</v>
       </c>
       <c r="X9" t="n">
-        <v>1.116273459213145</v>
+        <v>1.116273459213107</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.10633604854839</v>
+        <v>1.106336048548395</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.677625087588197</v>
+        <v>1.677625087588349</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.225599928212254</v>
+        <v>1.22559992821228</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.156438759165648</v>
+        <v>1.156438759165641</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3326493900649049</v>
+        <v>0.3326493900650767</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1626031875343341</v>
+        <v>0.1626031875344406</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3618421034297152</v>
+        <v>0.3618421034296259</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.05943179123762005</v>
+        <v>0.05943179123743957</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7094015939867725</v>
+        <v>0.7094015939868343</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8800122805678332</v>
+        <v>0.8800122805677814</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1258986279499272</v>
+        <v>0.1258986279499707</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.06595170904882358</v>
+        <v>0.06595170904897302</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1573866984015168</v>
+        <v>0.1573866984015552</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.05538583050689044</v>
+        <v>0.05538583050691475</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.1626517724772043</v>
+        <v>0.1626517724768786</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.433589191692286</v>
+        <v>4.433589191692342</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.635882482258991</v>
+        <v>3.635882482259043</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6166176369715214</v>
+        <v>9.344731485578649</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>5.220975290224175</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05672749292570166</v>
+        <v>0.05672749292584098</v>
       </c>
       <c r="D10" t="n">
-        <v>5.59546676768711</v>
+        <v>5.595466767687149</v>
       </c>
       <c r="E10" t="n">
-        <v>13.38624924868142</v>
+        <v>13.38624924868104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5479837346822596</v>
+        <v>0.5479837346822412</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2766413439937351</v>
+        <v>0.2766413439936022</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2549555441751101</v>
+        <v>0.2549555441751098</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2125990044664133</v>
+        <v>0.2125990044663871</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1593970219710512</v>
+        <v>0.1593970219708372</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09662625227570698</v>
+        <v>0.09662625227653729</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3037777809493266</v>
+        <v>0.3037777809520388</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4915762060818193</v>
+        <v>0.49157620608173</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2733959758771878</v>
+        <v>0.2733959758770948</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1579675108884095</v>
+        <v>0.1579675108886983</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09715802019123182</v>
+        <v>0.09715802019128823</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4567951719505088</v>
+        <v>0.4567951719505154</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5000194187236665</v>
+        <v>0.5000194187236745</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1258280088542154</v>
+        <v>0.1258280088541423</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07973046309999614</v>
+        <v>0.07973046310012062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1528560219083293</v>
+        <v>0.1528560219083625</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3876165643616959</v>
+        <v>0.3876165643618414</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4718706439228268</v>
+        <v>0.4718706439232627</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5041277372525667</v>
+        <v>0.5041277372519276</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4507424260593855</v>
+        <v>0.4507424260593642</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3528341467074469</v>
+        <v>0.3528341467073239</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2899423021526961</v>
+        <v>0.2899423021528419</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5324813082930424</v>
+        <v>0.5324813082927941</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5110470253267079</v>
+        <v>0.5110470253264453</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.8670295854103417</v>
+        <v>0.8670295854107987</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1836024022572028</v>
+        <v>0.1836024022569896</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3276248280201824</v>
+        <v>0.327624828019404</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1190779661023817</v>
+        <v>0.1190779661022857</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1521032560694136</v>
+        <v>0.1521032560698841</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1325059876285758</v>
+        <v>0.1325059876287394</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.2843834311393897</v>
+        <v>0.2843834311395042</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2590459568044159</v>
+        <v>0.2590459568045436</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.5151971224436668</v>
+        <v>0.5151971224435784</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.3134340794360764</v>
+        <v>0.3134340794360156</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.3706343574698279</v>
+        <v>0.3706343574697922</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.3494206609082927</v>
+        <v>0.3494206609082391</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.1467987596755232</v>
+        <v>5.533635385322023</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2.155126514087637</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:43">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1083813886496649</v>
+        <v>0.1083813886500555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.444015386446466</v>
+        <v>1.444015386446445</v>
       </c>
       <c r="E11" t="n">
-        <v>3.475948857062936</v>
+        <v>3.475948857063084</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5400991495177727</v>
+        <v>0.5400991495177403</v>
       </c>
       <c r="G11" t="n">
-        <v>1.911055584217783</v>
+        <v>1.911055584217614</v>
       </c>
       <c r="H11" t="n">
-        <v>1.665843769353183</v>
+        <v>1.665843769353135</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1538552309557399</v>
+        <v>0.1538552309560444</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3580917166560359</v>
+        <v>0.3580917166556294</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4792023909283891</v>
+        <v>0.4792023909272535</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1855327621493789</v>
+        <v>0.1855327621491194</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1456663998207594</v>
+        <v>0.1456663998212001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1002993876957148</v>
+        <v>0.1002993876957704</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1658611903165153</v>
+        <v>0.1658611903171038</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1466312568723727</v>
+        <v>0.1466312568722209</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2485976585691729</v>
+        <v>0.2485976585689569</v>
       </c>
       <c r="R11" t="n">
-        <v>0.25891772718142</v>
+        <v>0.258917727181402</v>
       </c>
       <c r="S11" t="n">
-        <v>2.424136918055894</v>
+        <v>2.424136918055304</v>
       </c>
       <c r="T11" t="n">
-        <v>3.146862395206051</v>
+        <v>3.146862395206209</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1165734811537661</v>
+        <v>0.1165734811541657</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1240981263768031</v>
+        <v>0.1240981263769873</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4190964639155361</v>
+        <v>0.4190964639156648</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1499510949427978</v>
+        <v>0.1499510949432167</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.178560235484667</v>
+        <v>0.178560235484699</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.447005052174042</v>
+        <v>1.447005052174125</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.464735988429333</v>
+        <v>1.464735988429449</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6536645559649993</v>
+        <v>0.653664555964921</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1916180637239817</v>
+        <v>0.1916180637237153</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1223686929553644</v>
+        <v>0.1223686929552936</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1153779926012883</v>
+        <v>0.1153779926013233</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1610919783703879</v>
+        <v>0.1610919783701335</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1975723822601406</v>
+        <v>0.1975723822601851</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7617312142834627</v>
+        <v>0.7617312142837034</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.4101348880881028</v>
+        <v>0.4101348880879858</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1600337212862108</v>
+        <v>0.1600337212861004</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.09234606897493566</v>
+        <v>0.09234606897480263</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1331888497579903</v>
+        <v>0.1331888497581468</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1359695074319495</v>
+        <v>0.1359695074319436</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.1907523161272125</v>
+        <v>0.1907523161273276</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2811929051563819</v>
+        <v>0.2811929051568232</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.2284570196299852</v>
+        <v>14.59529836010645</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>4.482484280676183</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AP11"/>
+  <dimension ref="B1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,7 +1881,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -1976,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1987,7 +2017,7 @@
         <v>5.413893500688038</v>
       </c>
       <c r="E2" t="n">
-        <v>4.728818562891928</v>
+        <v>4.74667570574907</v>
       </c>
       <c r="F2" t="n">
         <v>8.341503443945536</v>
@@ -2098,10 +2128,13 @@
         <v>5.988812833498085</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.81862352789444</v>
+        <v>2.454809403065446</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.005768116218618937</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2136,7 +2169,7 @@
         <v>7.651462876008476</v>
       </c>
       <c r="M3" t="n">
-        <v>7.067965292329153</v>
+        <v>7.080868518135604</v>
       </c>
       <c r="N3" t="n">
         <v>8.072903016915742</v>
@@ -2199,7 +2232,7 @@
         <v>5.90021185201452</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.345356882666885</v>
+        <v>7.357552004618105</v>
       </c>
       <c r="AI3" t="n">
         <v>5.931068170859342</v>
@@ -2214,7 +2247,7 @@
         <v>8.030665905226355</v>
       </c>
       <c r="AM3" t="n">
-        <v>8.535605504706689</v>
+        <v>8.531922263454387</v>
       </c>
       <c r="AN3" t="n">
         <v>7.628153900738483</v>
@@ -2223,10 +2256,13 @@
         <v>6.365917144071394</v>
       </c>
       <c r="AP3" t="n">
-        <v>8.874440198440888</v>
+        <v>3.364865597157544</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.01577634279244654</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2294,7 +2330,7 @@
         <v>1.95238863550954</v>
       </c>
       <c r="X4" t="n">
-        <v>6.461249658972028</v>
+        <v>6.470773468495837</v>
       </c>
       <c r="Y4" t="n">
         <v>9.180227088788808</v>
@@ -2303,7 +2339,7 @@
         <v>9.307580178988372</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.872248544748356</v>
+        <v>2.87697902943908</v>
       </c>
       <c r="AB4" t="n">
         <v>2.132549873808578</v>
@@ -2348,10 +2384,13 @@
         <v>8.09068813395108</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.39327524993538</v>
+        <v>0.38763394499427</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.002537519485470378</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2473,10 +2512,13 @@
         <v>7.667869411798966</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.219518966396434</v>
+        <v>3.375625774954312</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.002536936577967821</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2484,13 +2526,13 @@
         <v>10.20549909372608</v>
       </c>
       <c r="D6" t="n">
-        <v>6.257055438422057</v>
+        <v>6.255013202740599</v>
       </c>
       <c r="E6" t="n">
         <v>4.727437308863795</v>
       </c>
       <c r="F6" t="n">
-        <v>6.81064860602352</v>
+        <v>6.813981939356854</v>
       </c>
       <c r="G6" t="n">
         <v>7.130293690672125</v>
@@ -2598,10 +2640,13 @@
         <v>5.049743314226872</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.815171239192523</v>
+        <v>4.2997621174037</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.002536742337808863</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2723,10 +2768,13 @@
         <v>8.970305823444425</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.578694557752547</v>
+        <v>6.486799826332395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.00253829713215286</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2734,10 +2782,10 @@
         <v>10.21668872071775</v>
       </c>
       <c r="D8" t="n">
-        <v>3.360856218291974</v>
+        <v>3.365360257781284</v>
       </c>
       <c r="E8" t="n">
-        <v>4.480797623290646</v>
+        <v>4.463612106900287</v>
       </c>
       <c r="F8" t="n">
         <v>8.519731258992723</v>
@@ -2797,7 +2845,7 @@
         <v>7.490402448444494</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.810010618811837</v>
+        <v>8.815686154149001</v>
       </c>
       <c r="Z8" t="n">
         <v>3.40250839443961</v>
@@ -2848,10 +2896,13 @@
         <v>7.019091496675265</v>
       </c>
       <c r="AP8" t="n">
-        <v>8.234669674043829</v>
+        <v>0.03652050872662742</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.00236943999420598</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2871,7 +2922,7 @@
         <v>6.555810217198244</v>
       </c>
       <c r="H9" t="n">
-        <v>6.449396960878722</v>
+        <v>6.447673424978994</v>
       </c>
       <c r="I9" t="n">
         <v>5.413362856501958</v>
@@ -2880,7 +2931,7 @@
         <v>7.73498132501723</v>
       </c>
       <c r="K9" t="n">
-        <v>6.673386671134658</v>
+        <v>6.661450909030691</v>
       </c>
       <c r="L9" t="n">
         <v>5.869600541346937</v>
@@ -2919,7 +2970,7 @@
         <v>7.720054039052942</v>
       </c>
       <c r="X9" t="n">
-        <v>7.454083818194532</v>
+        <v>7.44994303144505</v>
       </c>
       <c r="Y9" t="n">
         <v>5.813762558352107</v>
@@ -2940,19 +2991,19 @@
         <v>8.402960299634225</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.950862960391836</v>
+        <v>7.951259170783124</v>
       </c>
       <c r="AF9" t="n">
         <v>7.798426350628997</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.328430074591867</v>
+        <v>5.331184962094031</v>
       </c>
       <c r="AH9" t="n">
         <v>5.873993569280955</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.431089457224932</v>
+        <v>9.433089457224932</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.213228003995976</v>
@@ -2973,10 +3024,13 @@
         <v>5.090426638823443</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.811470816989324</v>
+        <v>1.720768838607268</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.002538686142779712</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3098,15 +3152,18 @@
         <v>9.344811526250112</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.450296224191622</v>
+        <v>4.505844946148144</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.002369259797646739</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:43">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>10.07020520894</v>
+        <v>10.07151410946356</v>
       </c>
       <c r="D11" t="n">
         <v>5.899581734926789</v>
@@ -3151,7 +3208,7 @@
         <v>8.33030704425506</v>
       </c>
       <c r="R11" t="n">
-        <v>8.884778028558063</v>
+        <v>8.881293708000573</v>
       </c>
       <c r="S11" t="n">
         <v>3.604472312199765</v>
@@ -3223,7 +3280,10 @@
         <v>7.851361519975502</v>
       </c>
       <c r="AP11" t="n">
-        <v>7.330916878114602</v>
+        <v>2.117278916872646</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.002539075278345081</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AP11"/>
+  <dimension ref="B1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3245,7 +3305,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -3370,1254 +3430,1284 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6555349355950731</v>
+        <v>0.6555349355944661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5792077788675224</v>
+        <v>0.5792077788679139</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5798269164817266</v>
+        <v>0.5798269164817265</v>
       </c>
       <c r="F2" t="n">
-        <v>0.565883448920342</v>
+        <v>0.565883448920278</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5728225037203688</v>
+        <v>0.5728225037203687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.590153064592323</v>
+        <v>0.5901530645923176</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7062787537159478</v>
+        <v>0.7062787537155049</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5783435244587464</v>
+        <v>0.5783435244587115</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5762586802780902</v>
+        <v>0.5762586802780822</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5824178448505481</v>
+        <v>0.5824178448505611</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6319919591299142</v>
+        <v>0.631991959130043</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5791570599832956</v>
+        <v>0.5791570599832556</v>
       </c>
       <c r="O2" t="n">
-        <v>0.64232220470978</v>
+        <v>0.6423222047088898</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5846589191951641</v>
+        <v>0.5846589191951613</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5806880724760599</v>
+        <v>0.5806880724760609</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6617707098864861</v>
+        <v>0.661770709886812</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5765971321202896</v>
+        <v>0.5765971321202892</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5862158787914842</v>
+        <v>0.586215878791479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5785039104368993</v>
+        <v>0.5785039104369007</v>
       </c>
       <c r="V2" t="n">
         <v>0.589589361633149</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5766350534389227</v>
+        <v>0.5766350534389246</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5761869862036031</v>
+        <v>0.5761869862036032</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5611291357097239</v>
+        <v>0.561129135709735</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.583483346848033</v>
+        <v>0.5834833468480356</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5888600041385298</v>
+        <v>0.5888600041390305</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7342040951908364</v>
+        <v>0.7342040951908197</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.56824454996903</v>
+        <v>0.5682445499690135</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6989949798433773</v>
+        <v>0.698994979843357</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5572804469817219</v>
+        <v>0.5572804469817029</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6508578234457517</v>
+        <v>0.6508578234457822</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5692116328940738</v>
+        <v>0.5692116328940541</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6162496241895081</v>
+        <v>0.6162496241894558</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5667207809080351</v>
+        <v>0.5667207809080128</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6092275130050748</v>
+        <v>0.6092275130053439</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.5675029530631759</v>
+        <v>0.5675029530631756</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6803229684073653</v>
+        <v>0.6803229684072764</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5683319029729337</v>
+        <v>0.5683319029729298</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6457679325745468</v>
+        <v>0.6457679325745175</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5761879494165102</v>
+        <v>0.576187949416508</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6835320619649725</v>
+        <v>0.6774444098422603</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.5407391309134406</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6283195232260274</v>
+        <v>0.6283195232252115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6793704980853614</v>
+        <v>0.6793704980859755</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6956236676275893</v>
+        <v>0.6956236676276091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5608027369122573</v>
+        <v>0.5608027369122572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6143076119386771</v>
+        <v>0.6143076119386741</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5664518742421353</v>
+        <v>0.5664518742421356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6023336085019342</v>
+        <v>0.6023336085020202</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7657619021047384</v>
+        <v>0.7657619021047457</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5730073911001515</v>
+        <v>0.5730073911001583</v>
       </c>
       <c r="L3" t="n">
         <v>0.5696740856871958</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6196126697747176</v>
+        <v>0.6196126697753054</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5643040320787955</v>
+        <v>0.5643040320787958</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6409023396003426</v>
+        <v>0.640902339598467</v>
       </c>
       <c r="P3" t="n">
-        <v>0.565595427827046</v>
+        <v>0.5655954278270443</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5744596831691434</v>
+        <v>0.5744596831667705</v>
       </c>
       <c r="R3" t="n">
         <v>0.5699418314752749</v>
       </c>
       <c r="S3" t="n">
-        <v>0.648879137678623</v>
+        <v>0.6488791376717084</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5673037493403377</v>
+        <v>0.5673037493402338</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6314959318066484</v>
+        <v>0.6314959318132924</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7202077765074463</v>
+        <v>0.720207776507256</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6725589621552935</v>
+        <v>0.6725589621549547</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6562459617262599</v>
+        <v>0.6562459617262594</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.55632880727971</v>
+        <v>0.5563288072797095</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6760660618420544</v>
+        <v>0.6760660618414287</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7356976873500995</v>
+        <v>0.7356976873501666</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6803391044138558</v>
+        <v>0.6803391044174735</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6736032118148164</v>
+        <v>0.6736032118149972</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5840161922017999</v>
+        <v>0.5840161922017836</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7293945267656871</v>
+        <v>0.7293945267656007</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.625357496832898</v>
+        <v>0.6253574968329333</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.7462007787948683</v>
+        <v>0.7462007787948074</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6559639630792126</v>
+        <v>0.6559639630796882</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.672117414633689</v>
+        <v>0.672117414634787</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.710436215860848</v>
+        <v>0.710436215861086</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6635363418723946</v>
+        <v>0.6635363418723759</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6150878194562683</v>
+        <v>0.6150878194562479</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5696591430408372</v>
+        <v>0.5696591430408815</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5797879459192039</v>
+        <v>0.5797879459192142</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.6994738582643762</v>
+        <v>0.6994738582643596</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.631676735585311</v>
+        <v>0.6313856725225175</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.5407420236292402</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7505102005615728</v>
+        <v>0.7505102005612672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7698754558528346</v>
+        <v>0.7698754558527736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.571477128442798</v>
+        <v>0.5714771284427981</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6365956443133305</v>
+        <v>0.636595644313416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7891111577085462</v>
+        <v>0.7891111577082811</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6381450168275424</v>
+        <v>0.6381450168289683</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5852486286313096</v>
+        <v>0.5852486286301735</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6160749343984789</v>
+        <v>0.6160749343977558</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5703407731594771</v>
+        <v>0.5703407731594783</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7404864700625795</v>
+        <v>0.740486470062622</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6293975851309008</v>
+        <v>0.629397585130805</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7172555111531421</v>
+        <v>0.7172555111536913</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6537615559676072</v>
+        <v>0.6537615559558371</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6202888558635773</v>
+        <v>0.6202888558628417</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5940232159075189</v>
+        <v>0.5940232159077519</v>
       </c>
       <c r="R4" t="n">
-        <v>0.560742590356199</v>
+        <v>0.560742590356206</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6026321764338746</v>
+        <v>0.6026321764356581</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5659161420485677</v>
+        <v>0.565916142048556</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5726051110875464</v>
+        <v>0.5726051110875454</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5687724040198555</v>
+        <v>0.5687724040198557</v>
       </c>
       <c r="W4" t="n">
-        <v>0.574290505497853</v>
+        <v>0.574290505497849</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6110894282280567</v>
+        <v>0.6110894282280034</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7352821616488798</v>
+        <v>0.7352821616484704</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7136415848932715</v>
+        <v>0.7136415848953228</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7200151428504931</v>
+        <v>0.7200151428520967</v>
       </c>
       <c r="AB4" t="n">
         <v>0.5787352536861858</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.575735904669622</v>
+        <v>0.575735904669578</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5789209124612896</v>
+        <v>0.5789209124612922</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5578230328495698</v>
+        <v>0.557823032849568</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6553084615692364</v>
+        <v>0.6553084615691901</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.554187529130697</v>
+        <v>0.5541875291306879</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5940056840122419</v>
+        <v>0.5940056840118865</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5565354227579697</v>
+        <v>0.5565354227579701</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.611140526802426</v>
+        <v>0.6111405268025806</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5766550949892386</v>
+        <v>0.5766550949892205</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6181578566980901</v>
+        <v>0.6181578566988705</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6804083887340642</v>
+        <v>0.6804083887362636</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.5676752967779637</v>
+        <v>0.567675296777963</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7169929994014529</v>
+        <v>0.7169929994007973</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5613107430179586</v>
+        <v>0.5611847908596858</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.5407436272197856</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6641428088802079</v>
+        <v>0.6641428088750373</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6802159918633587</v>
+        <v>0.6802159918636577</v>
       </c>
       <c r="E5" t="n">
         <v>0.5655437905944266</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6330807442773101</v>
+        <v>0.6330807442772939</v>
       </c>
       <c r="G5" t="n">
-        <v>0.694999626709104</v>
+        <v>0.6949996267085441</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5645045367010685</v>
+        <v>0.5645045367011613</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6769729363234668</v>
+        <v>0.676972936328565</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6361987562747583</v>
+        <v>0.6361987562760355</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5941788604485801</v>
+        <v>0.5941788604502178</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6614580762865295</v>
+        <v>0.6614580762840229</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5830091250518528</v>
+        <v>0.5830091250520002</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6234665455013212</v>
+        <v>0.6234665454994142</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6573929080119013</v>
+        <v>0.6573929080122526</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6036105815638835</v>
+        <v>0.6036105815598427</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6359659403459974</v>
+        <v>0.6359659403450507</v>
       </c>
       <c r="R5" t="n">
-        <v>0.645152884461762</v>
+        <v>0.6451528844626038</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6714044556276783</v>
+        <v>0.6714044556265858</v>
       </c>
       <c r="T5" t="n">
         <v>0.5663686954033564</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5759380017194315</v>
+        <v>0.5759380017194894</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5766033839781612</v>
+        <v>0.5766033839783423</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5755860861526728</v>
+        <v>0.5755860861526979</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5894174363343287</v>
+        <v>0.5894174363343316</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5597172444642858</v>
+        <v>0.5597172444642412</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.597670993473316</v>
+        <v>0.5976709934732933</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5630086896752824</v>
+        <v>0.5630086896752973</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5970023484871367</v>
+        <v>0.597002348487718</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6186172354632332</v>
+        <v>0.6186172354634192</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5799905370966213</v>
+        <v>0.5799905370966207</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5676357245921296</v>
+        <v>0.5676357245921008</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6159791033101811</v>
+        <v>0.6159791033116985</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5412167683930295</v>
+        <v>0.5412167683864372</v>
       </c>
       <c r="AH5" t="n">
         <v>0.5715556927739748</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5591528770277877</v>
+        <v>0.5591528770277816</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6169764769576227</v>
+        <v>0.6169764769537874</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5604646721414426</v>
+        <v>0.5604646721414406</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6578516554632545</v>
+        <v>0.6578516554631439</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6956970838067946</v>
+        <v>0.6956970838044528</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6385057870974504</v>
+        <v>0.6385057870968204</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.7352683619774042</v>
+        <v>0.7352683619771924</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6279557123376954</v>
+        <v>0.6276859599497224</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.5407422570306015</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5963836374832475</v>
+        <v>0.5963836374826105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5718683188170735</v>
+        <v>0.5718683188176982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5694861728981824</v>
+        <v>0.5694861728981823</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5626325001679998</v>
+        <v>0.562632500168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5729494536255165</v>
+        <v>0.5729494536254974</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5664937029246707</v>
+        <v>0.5664937029246189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6059728985021945</v>
+        <v>0.6059728985000423</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5667101894201358</v>
+        <v>0.5667101894201348</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5791940058522008</v>
+        <v>0.5791940058522016</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5692579472074397</v>
+        <v>0.5692579472080229</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6032291360299786</v>
+        <v>0.6032291360301125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5672289825642559</v>
+        <v>0.5672289825641956</v>
       </c>
       <c r="O6" t="n">
-        <v>0.682416352657427</v>
+        <v>0.6824163526620167</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5739132847994667</v>
+        <v>0.5739132847994683</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6158981201207617</v>
+        <v>0.6158981201207498</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5968021373384593</v>
+        <v>0.5968021373374278</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5906293412718204</v>
+        <v>0.5906293412717476</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6426445251778844</v>
+        <v>0.6426445251777179</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5861845534539069</v>
+        <v>0.5861845534538653</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5711525642437392</v>
+        <v>0.5711525642438202</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5868708404705529</v>
+        <v>0.586870840467816</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5726351513490262</v>
+        <v>0.572635151349026</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6128602154157926</v>
+        <v>0.6128602154144731</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6265149729519079</v>
+        <v>0.6265149729520887</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5593456004935276</v>
+        <v>0.559345600493528</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6198617832059579</v>
+        <v>0.6198617832059994</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5599872765762891</v>
+        <v>0.5599872765763088</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5816744260937432</v>
+        <v>0.58167442609374</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7144141981249922</v>
+        <v>0.7144141981249056</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5828531282277596</v>
+        <v>0.5828531282277698</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5656064510277096</v>
+        <v>0.5656064510277631</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6768139302708577</v>
+        <v>0.6768139302668666</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6434047247201184</v>
+        <v>0.6434047247201296</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6514071356665802</v>
+        <v>0.6514071356751675</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7233749880227855</v>
+        <v>0.7233749880227586</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6756216977029618</v>
+        <v>0.6756216977064791</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5604852366312504</v>
+        <v>0.5604852366312484</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6519348473132704</v>
+        <v>0.6519348473105506</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.67291052147512</v>
+        <v>0.6729105214726948</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5810877097757545</v>
+        <v>0.5796263216674892</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.5407373304700513</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6378940641785247</v>
+        <v>0.6378940641799689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5914206814741111</v>
+        <v>0.591420681471954</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5765123880056416</v>
+        <v>0.5765123880056453</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6666019398062089</v>
+        <v>0.6666019398062929</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7292636871972447</v>
+        <v>0.7292636871977758</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5990291570361762</v>
+        <v>0.5990291570361936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7329434286224464</v>
+        <v>0.7329434286225485</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6332119473526224</v>
+        <v>0.6332119473528002</v>
       </c>
       <c r="K7" t="n">
-        <v>0.792706147983289</v>
+        <v>0.7927061479833426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6965207596750776</v>
+        <v>0.6965207596750133</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6828479250257383</v>
+        <v>0.6828479250258908</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6377089719778083</v>
+        <v>0.6377089719765281</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6016644552646245</v>
+        <v>0.6016644552645837</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6913113371565848</v>
+        <v>0.6913113371556977</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6773690990415757</v>
+        <v>0.6773690990415585</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6225811433746999</v>
+        <v>0.6225811433748794</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6737466267342846</v>
+        <v>0.6737466267344092</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6838729784864833</v>
+        <v>0.6838729784864588</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6762180876900743</v>
+        <v>0.6762180876900744</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5639760917644789</v>
+        <v>0.5639760917644711</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6154268624670387</v>
+        <v>0.6154268624683539</v>
       </c>
       <c r="X7" t="n">
-        <v>0.575062219730227</v>
+        <v>0.5750622197302422</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7045863841283154</v>
+        <v>0.7045863841285223</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5943953536653483</v>
+        <v>0.594395353665274</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7583139551949803</v>
+        <v>0.7583139551950061</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6692890936678014</v>
+        <v>0.669289093666058</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6874998410013687</v>
+        <v>0.687499841001881</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6233892549098566</v>
+        <v>0.6233892549098573</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5558943199243895</v>
+        <v>0.5558943199243861</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.608147926977721</v>
+        <v>0.6081479269777915</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6148657224192277</v>
+        <v>0.6148657224193627</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.7179717794388912</v>
+        <v>0.7179717794389019</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6660621364280538</v>
+        <v>0.6660621364281296</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.5727241642825904</v>
+        <v>0.5727241642825919</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6574123467213046</v>
+        <v>0.657412346721257</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5659600517212</v>
+        <v>0.5659600517212008</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.565146555754328</v>
+        <v>0.5651465557539732</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5973195994838789</v>
+        <v>0.5973195994842274</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.582323422570764</v>
+        <v>0.5823234225708563</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7294717938370373</v>
+        <v>0.7290011872539199</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.5407444268834601</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5996859839958305</v>
+        <v>0.5996859839896342</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6463527895717187</v>
+        <v>0.646352789570851</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5705223814111116</v>
+        <v>0.5705223814111114</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5659792037437549</v>
+        <v>0.5659792037437922</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5886648904724602</v>
+        <v>0.5886648904742772</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6048671471310058</v>
+        <v>0.6048671471300268</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6851529600882263</v>
+        <v>0.6851529600880237</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5937660646741907</v>
+        <v>0.5937660646747491</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6475801377881425</v>
+        <v>0.647580137784016</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5750079317130724</v>
+        <v>0.5750079317140747</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6311533636626133</v>
+        <v>0.6311533636629906</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5666832529471637</v>
+        <v>0.5666832529472012</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6385128447050741</v>
+        <v>0.6385128447050225</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5666629591424474</v>
+        <v>0.5666629591420003</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6058959209889939</v>
+        <v>0.6058959209932244</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5706932509392959</v>
+        <v>0.5706932509392976</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6793736818774462</v>
+        <v>0.6793736818783334</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5731998039693582</v>
+        <v>0.5731998039689912</v>
       </c>
       <c r="U8" t="n">
-        <v>0.582694819469973</v>
+        <v>0.5826948194699656</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5757231769043144</v>
+        <v>0.5757231769043659</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6451905238894813</v>
+        <v>0.6451905238910782</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5809756829824639</v>
+        <v>0.5809756829827776</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5615485709636721</v>
+        <v>0.5615485709636799</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6501116216443157</v>
+        <v>0.6501116216439138</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5640603147499467</v>
+        <v>0.5640603147499469</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5888965574330727</v>
+        <v>0.5888965574330711</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5605780573268149</v>
+        <v>0.5605780573268165</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6119014690029377</v>
+        <v>0.6119014690029615</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.5617461653433896</v>
+        <v>0.5617461653432997</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5982396931918401</v>
+        <v>0.5982396931918941</v>
       </c>
       <c r="AG8" t="n">
         <v>0.5650143063569374</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.5651902911925148</v>
+        <v>0.5651902911925146</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.5591529411920751</v>
+        <v>0.5591529411920754</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5780382696821598</v>
+        <v>0.5780382696821599</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5642938976056864</v>
+        <v>0.5642938976057593</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5650475149342055</v>
+        <v>0.5650475149342137</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.5606594007036247</v>
+        <v>0.5606594007036246</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.5688002512159899</v>
+        <v>0.5688002512159879</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.600863147454606</v>
+        <v>0.6008631474547682</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5575697229131333</v>
+        <v>0.5574907371022527</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.5407467849870082</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6863211310312488</v>
+        <v>0.6863211310314651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7325016523753202</v>
+        <v>0.7325016523753335</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5642226075444904</v>
+        <v>0.5642226075444917</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5608809276729378</v>
+        <v>0.5608809276729372</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6216422246010022</v>
+        <v>0.6216422246059568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5640293219135238</v>
+        <v>0.564029321913524</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7392912418412005</v>
+        <v>0.7392912418411176</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5606805384679423</v>
+        <v>0.5606805384679421</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7447689957817212</v>
+        <v>0.7447689957813762</v>
       </c>
       <c r="L9" t="n">
-        <v>0.564877513700918</v>
+        <v>0.5648775137009194</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5661515420564509</v>
+        <v>0.5661515420564505</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6025277425318091</v>
+        <v>0.6025277425318195</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7022783339150577</v>
+        <v>0.7022783339205541</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5696296327754155</v>
+        <v>0.5696296327754212</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6309995191049328</v>
+        <v>0.6309995191079729</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7119605951207955</v>
+        <v>0.7119605951234785</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6428403708615565</v>
+        <v>0.642840370859007</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6871152351840469</v>
+        <v>0.6871152351840777</v>
       </c>
       <c r="U9" t="n">
-        <v>0.571012578608459</v>
+        <v>0.5710125786084619</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5711498532383539</v>
+        <v>0.5711498532383961</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6847534119634833</v>
+        <v>0.6847534119632879</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5667671137786369</v>
+        <v>0.5667671137785968</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5628148831119338</v>
+        <v>0.5628148831119303</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5699922207493793</v>
+        <v>0.5699922207493792</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6240909485941277</v>
+        <v>0.6240909485941116</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7040760709786574</v>
+        <v>0.7040760709783698</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5588089027364008</v>
+        <v>0.5588089027364482</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.7430211887798964</v>
+        <v>0.7430211887801045</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6618002897062507</v>
+        <v>0.6618002897068685</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6765271307929172</v>
+        <v>0.6765271307966318</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7148952279810664</v>
+        <v>0.7148952279805012</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.640812542691629</v>
+        <v>0.6408125426917276</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5600451439991616</v>
+        <v>0.5600451439998902</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6985510926590507</v>
+        <v>0.6985510926585616</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.7079704559195583</v>
+        <v>0.7079704559198871</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6977823749647259</v>
+        <v>0.6977823749682345</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.6927111534896936</v>
+        <v>0.6927111534896951</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.5711191074845271</v>
+        <v>0.5711191074844895</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5563341359273012</v>
+        <v>0.5563341359273007</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6311833169643253</v>
+        <v>0.6307005410656747</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.5407458911428115</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6087379709700559</v>
+        <v>0.6087379709661834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6281591027561209</v>
+        <v>0.628159102745466</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5684561120078326</v>
+        <v>0.5684561120078325</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5608610236706356</v>
+        <v>0.5608610236706363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5954588953934522</v>
+        <v>0.5954588953923293</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5627520093193464</v>
+        <v>0.5627520093193522</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7145361547349326</v>
+        <v>0.7145361547349678</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5797558548130226</v>
+        <v>0.5797558548128466</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6908521315281481</v>
+        <v>0.6908521315277454</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6907559985275495</v>
+        <v>0.6907559985273731</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6436554980988077</v>
+        <v>0.6436554980987113</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5692202714992185</v>
+        <v>0.569220271499226</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7039616239721367</v>
+        <v>0.703961623971326</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5899344293606738</v>
+        <v>0.5899344293594199</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5908033847512481</v>
+        <v>0.590803384752531</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5694826558267965</v>
+        <v>0.5694826558267964</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5974852723359096</v>
+        <v>0.5974852723356892</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6001085051422759</v>
+        <v>0.6001085051408891</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6859145244258473</v>
+        <v>0.6859145244261033</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5701500310404518</v>
+        <v>0.5701500310405108</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6493481535221971</v>
+        <v>0.6493481535217945</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5826005620398158</v>
+        <v>0.5826005620396334</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5584172890625845</v>
+        <v>0.5584172890625985</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5714633988029125</v>
+        <v>0.5714633988028354</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5722552546074899</v>
+        <v>0.572255254607455</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5750786389119547</v>
+        <v>0.5750786389119565</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5785511206884211</v>
+        <v>0.578551120689467</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.5692739354984302</v>
+        <v>0.5692739354984316</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6911864112919641</v>
+        <v>0.6911864112899504</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5797952484814712</v>
+        <v>0.5797952484816395</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.580687021125828</v>
+        <v>0.5806870211267866</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.5924297540897108</v>
+        <v>0.5924297540920311</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6422116047193381</v>
+        <v>0.6422116047193677</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6606821814313814</v>
+        <v>0.660682181429135</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5569674870681093</v>
+        <v>0.5569674870680003</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6164272540535483</v>
+        <v>0.6164272540531471</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5712404647243877</v>
+        <v>0.5712404647244155</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6369465423058459</v>
+        <v>0.636946542303901</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5797913098458461</v>
+        <v>0.5797913098457796</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6485785483836886</v>
+        <v>0.6464241020523772</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.5407464017613662</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:43">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6906821201440637</v>
+        <v>0.6906821201443325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.67452002986186</v>
+        <v>0.6745200298617133</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5781639546543834</v>
+        <v>0.5781639546543836</v>
       </c>
       <c r="F11" t="n">
-        <v>0.569281814732495</v>
+        <v>0.569281814732878</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6220654262733202</v>
+        <v>0.6220654262733392</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5608822355144237</v>
+        <v>0.5608822355144241</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6350965283275455</v>
+        <v>0.635096528327862</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6114882676270457</v>
+        <v>0.6114882676291312</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5701075870301665</v>
+        <v>0.5701075870301714</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5667594903213687</v>
+        <v>0.5667594903224987</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6218516696076464</v>
+        <v>0.6218516696050039</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6768683741985324</v>
+        <v>0.6768683741972018</v>
       </c>
       <c r="O11" t="n">
-        <v>0.741876738563537</v>
+        <v>0.7418767385641074</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6416850825016601</v>
+        <v>0.6416850825015432</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6588435489732263</v>
+        <v>0.6588435489730119</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5611357303078763</v>
+        <v>0.5611357303078809</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6364887625501575</v>
+        <v>0.636488762549148</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5674618668212124</v>
+        <v>0.5674618668212111</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6168644264172756</v>
+        <v>0.6168644264154739</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7187235740181432</v>
+        <v>0.7187235740167938</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7251410724662226</v>
+        <v>0.725141072466932</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5948254999174925</v>
+        <v>0.5948254999168434</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7017392538049695</v>
+        <v>0.7017392538058744</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6587835869944123</v>
+        <v>0.6587835869941578</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5584820805612375</v>
+        <v>0.5584820805612398</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.57648286720292</v>
+        <v>0.5764828672029196</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.565427286984777</v>
+        <v>0.565427286984798</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.5779563703429818</v>
+        <v>0.5779563703442065</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.679743025463646</v>
+        <v>0.679743025464184</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6313207245794502</v>
+        <v>0.631320724579791</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7242773354499827</v>
+        <v>0.7242773354498974</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6821516821049487</v>
+        <v>0.6821516821048621</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.5638228769938183</v>
+        <v>0.5638228769938417</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7256763043593614</v>
+        <v>0.7256763043583874</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6315533374578036</v>
+        <v>0.6315533374592743</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.7418362646298802</v>
+        <v>0.7418362646293719</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.6345744036018054</v>
+        <v>0.6345744036024102</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.5986511838459048</v>
+        <v>0.5986511838456012</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7512741906428384</v>
+        <v>0.7512741906428894</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6408262317862981</v>
+        <v>0.6391712158944118</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.540746771488003</v>
       </c>
     </row>
   </sheetData>

--- a/25/Before_Soc_EEH2.xlsx
+++ b/25/Before_Soc_EEH2.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AQ11"/>
+  <dimension ref="B1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -704,13 +704,10 @@
         <v>2.209176956159429</v>
       </c>
       <c r="AP2" t="n">
-        <v>28.22560354059191</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>4.650577989592598</v>
+        <v>1.480808714107192</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:42">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -832,13 +829,10 @@
         <v>1.787431766817031</v>
       </c>
       <c r="AP3" t="n">
-        <v>10.57979310933031</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>5.587101763527078</v>
+        <v>0.8075663965570536</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:42">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -960,13 +954,10 @@
         <v>0.3279490906067143</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.128908380986231</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>3.87693097095664</v>
+        <v>0.4025583646820428</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:42">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1088,13 +1079,10 @@
         <v>0.9085756914540868</v>
       </c>
       <c r="AP5" t="n">
-        <v>5.385218696082716</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2.964421167601975</v>
+        <v>0.6899572908529897</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1216,13 +1204,10 @@
         <v>1.065821715104587</v>
       </c>
       <c r="AP6" t="n">
-        <v>7.114809759803852</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>2.499652195879408</v>
+        <v>0.5377756708469189</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1344,13 +1329,10 @@
         <v>5.950348025609667</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.869715748413872</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>4.579847663476225</v>
+        <v>4.16202276582262</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1472,13 +1454,10 @@
         <v>0.4479854582717208</v>
       </c>
       <c r="AP8" t="n">
-        <v>15.38775535155383</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>8.668264346186257</v>
+        <v>0.4448370713058029</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1600,13 +1579,10 @@
         <v>3.635882482259043</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.344731485578649</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>5.220975290224175</v>
+        <v>0.6166176369715476</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1728,13 +1704,10 @@
         <v>0.3494206609082391</v>
       </c>
       <c r="AP10" t="n">
-        <v>5.533635385322023</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>2.155126514087637</v>
+        <v>0.1467987596757228</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1856,10 +1829,7 @@
         <v>0.2811929051568232</v>
       </c>
       <c r="AP11" t="n">
-        <v>14.59529836010645</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>4.482484280676183</v>
+        <v>0.2284570196298694</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AQ11"/>
+  <dimension ref="B1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,7 +1851,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -2006,7 +1976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2128,13 +2098,10 @@
         <v>5.988812833498085</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.454809403065446</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.005768116218618937</v>
+        <v>5.81862352789444</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:42">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2256,13 +2223,10 @@
         <v>6.365917144071394</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.364865597157544</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.01577634279244654</v>
+        <v>8.874440198440888</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:42">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2384,13 +2348,10 @@
         <v>8.09068813395108</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.38763394499427</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.002537519485470378</v>
+        <v>8.39327524993538</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:42">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2512,13 +2473,10 @@
         <v>7.667869411798966</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.375625774954312</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.002536936577967821</v>
+        <v>8.219518966396434</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2640,13 +2598,10 @@
         <v>5.049743314226872</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.2997621174037</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.002536742337808863</v>
+        <v>6.815171239192523</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2768,13 +2723,10 @@
         <v>8.970305823444425</v>
       </c>
       <c r="AP7" t="n">
-        <v>6.486799826332395</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.00253829713215286</v>
+        <v>8.578694557752547</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2896,13 +2848,10 @@
         <v>7.019091496675265</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.03652050872662742</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.00236943999420598</v>
+        <v>8.234669674043829</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3024,13 +2973,10 @@
         <v>5.090426638823443</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.720768838607268</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.002538686142779712</v>
+        <v>6.811470816989324</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3152,13 +3098,10 @@
         <v>9.344811526250112</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.505844946148144</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0.002369259797646739</v>
+        <v>7.450296224191622</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3280,10 +3223,7 @@
         <v>7.851361519975502</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.117278916872646</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0.002539075278345081</v>
+        <v>7.330916878114602</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AQ11"/>
+  <dimension ref="B1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,7 +3245,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -3430,7 +3370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3552,13 +3492,10 @@
         <v>0.576187949416508</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6774444098422603</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.5407391309134406</v>
+        <v>0.6835320619646125</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:42">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3680,13 +3617,10 @@
         <v>0.6994738582643596</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6313856725225175</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.5407420236292402</v>
+        <v>0.6316767355853479</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:42">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3808,13 +3742,10 @@
         <v>0.7169929994007973</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5611847908596858</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.5407436272197856</v>
+        <v>0.5613107430178561</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:42">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3936,13 +3867,10 @@
         <v>0.7352683619771924</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6276859599497224</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.5407422570306015</v>
+        <v>0.6279557123376847</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -4064,13 +3992,10 @@
         <v>0.6729105214726948</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5796263216674892</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.5407373304700513</v>
+        <v>0.5810877097758038</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4192,13 +4117,10 @@
         <v>0.5823234225708563</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7290011872539199</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.5407444268834601</v>
+        <v>0.7294717938370332</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -4320,13 +4242,10 @@
         <v>0.6008631474547682</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5574907371022527</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.5407467849870082</v>
+        <v>0.5575697229131329</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4448,13 +4367,10 @@
         <v>0.5563341359273007</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6307005410656747</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.5407458911428115</v>
+        <v>0.6311833169644426</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4576,13 +4492,10 @@
         <v>0.5797913098457796</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6464241020523772</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0.5407464017613662</v>
+        <v>0.648578548383285</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4704,10 +4617,7 @@
         <v>0.7512741906428894</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6391712158944118</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0.540746771488003</v>
+        <v>0.6408262317860869</v>
       </c>
     </row>
   </sheetData>
